--- a/500all/speech_level/speeches_CHRG-114hhrg95119.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95119.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412468</t>
   </si>
   <si>
-    <t>Tom Marino</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Marino. The Subcommittee on Regulatory Reform, Commercial and Antitrust Law will come to order. Without objection, the Chair is authorized to declare recesses of the Committee at any time.    We welcome everyone to today's hearing on H.R. 2745, the ``Standard Merger and Acquisition Reviews Through Equal Rules Act of 2015.'' I will recognize myself for an opening statement.    Today's hearing is on the ``Standard Merger and Acquisition Reviews Through Equal Rules Act of 2015,'' known as the ``SMARTER Act.'' This legislation enacts an Antitrust Modernization Commission recommendation that the standards and processes applied in the merger review process should be identical between our two antitrust enforcement agencies.    Since 1914, two Federal agencies have enforced our Nation's antitrust laws, the Department of Justice and the Federal Trade Commission. When a company wishes to merge with or purchase another company, it notifies both antitrust enforcement agencies of the proposed transaction. Ultimately, only one agency reviews the transaction to determine whether it violates the antitrust laws, and there is no fixed rule to determine which agency will conduct this review.    When the reviewing antitrust enforcement agency concludes that the proposed transaction violates the antitrust laws, it then seeks to prevent the parties from consummating the deal. It is at this stage of the merger review process that the AMC identified a problem.    The AMC noted that there are different standards applied and processes available to the FTC and DOJ when each agency seeks to block a proposed transaction. Each agency is subject to a different preliminary injunction standard.    Additionally, the FTC has the option to unwind or prevent the closing of the transaction through administrative litigation, DOJ on the other hand cannot.    The AMC concluded that, although certain of the differences between the FTC and DOJ may have some benefits, the disparities between the dual merger review processes result in unfairness and uncertainty. In light of this finding, the AMC recommended that Congress harmonize the merger review processes and standards between the two antitrust enforcement agencies.    The SMARTER Act effectuates this recommendation. This legislation was carefully drafted to reform only the merger review process. The SMARTER Act does not prevent the FTC from pursuing administrative litigation in conduct cases, against consummated transactions, or in any other context outside of the merger review. This narrow construction is consistent with the AMC's recommendations.    Our witnesses today come with experience in the FTC, the DOJ, the AMC, and in private practice. I look forward to hearing their testimony on the important reforms contained in the SMARTER Act.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412199</t>
   </si>
   <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    Today's hearing is an important opportunity to consider the Federal Trade Commission's critical role in developing and enforcing antitrust law.    Congress first established the Federal Trade Commission in 1914 to safeguard consumers against anticompetitive behavior by specifically empowering the Commission with the authority to enforce, clarify, and develop antitrust law. Under the process of administrative litigation, also known as Part III litigation, the Committee may seek permanent injunctions in its own administrative court in addition to its ability to seek preliminary injunctions in Federal district court.    This additional authority is a unique mechanism that takes advantage of the Commission's longstanding expertise to develop some of the most complex issues in antitrust law.    Today, this Subcommittee will consider the Standard Merger and Acquisition Review Through Equal Rules, or SMARTER Act. This bill would create a uniform standard for preliminary injunctions in cases involving mergers, acquisitions, joint ventures, or similar transactions and, alarmingly, eliminate the Commission's century-old authority to administratively litigate these cases.    Proponents of the SMARTER Act argue that divergent standards for enjoining mergers may undermine the public's trust in the efficient and fair outcomes of merger cases. But it is unclear that these differences are material, let alone that the differences have led to divergent outcomes in merger cases.    In the absence of any evidence, it is difficult to support wholesale changes to longstanding antitrust practices at the FTC for consistency's sake alone based solely on speculative harms. But even assuming that there are material differences in cases brought under these standards, we should strike a balance in favor of competition by lowering the burden of proof in cases brought by the Justice Department, not by raising the Commission's burden for obtaining preliminary injunctions. Courts already require a lower burden of proof in cases brought by the Commission and Justice Department precisely because both are expert agencies equipped with large staffs of economists who analyze numerous mergers on a regular basis that may only bring cases that are in the public interest.    To the extent that we should address perceived differences in the standard for preliminary injunctions in merger cases, legislation should favor increased competition, not the interest of merging parties.    The SMARTER Act would also eliminate the FTC's authority to administratively litigate mergers and other transactions under Section 5(b) of the FTC Act. Leading authorities in antitrust across party lines have expressed serious reservations with eliminating the Commission's administrative litigation authority.    For instance, Bill Kovacic, a former Republican chair of the Commission, has referred to this aspect of the bill as ``rubbish,'' noting that the Commission has used administrative litigation to win a string of novel antitrust cases that courts have ultimately upheld where the Commission has had to fight every single foot along the way.    Edith Ramirez, the chairwoman of the FTC, likewise wrote last Congress that eliminating the FTC's administrative litigation authority would ``fundamentally alter the nature and function of the FTC.''    In light of these concerns, I sincerely hope that we can work to find an evenhanded solution that promotes competition in the market and protects the public interest.    And with that, I thank the Chairman, and I yield back.</t>
   </si>
   <si>
@@ -76,54 +70,36 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    I believe our Nation's antitrust laws serve an important function in rooting out anti-competitive and discriminatory behavior in the marketplace. I also believe that to be effective, these laws must be administered fairly and consistently.    Today's hearing focuses on the ``Standard Merger and Acquisition Reviews Through Equal Rules Act,'' or the ``SMARTER Act,'' which makes important reforms to ensure that our antitrust laws are prosecuted in this manner. Specifically, the bill amends the standards and processes applied to proposed transactions so that they are no longer determined by the flip of a coin.    One of the responsibilities of the Judiciary Committee is to ensure that the enforcement of our Nation's antitrust laws is fair, consistent, and predictable. We discharge this responsibility through vigorous oversight of the antitrust enforcement agencies and vigilant supervision of the existing antitrust laws. To assist the Committee in its antitrust oversight, the Antitrust Modernization Commission was formed and charged with conducting a comprehensive examination of the antitrust laws and existing enforcement practices.    Following this review, the AMC issued a 540-page report that detailed the issues it examined and provided a number of recommendations for legislative, administrative, and judicial action. One of the issues the AMC examined was the existing disparities in the standards applied to, and processes used by, the Department of Justice and the Federal Trade Commission when they seek to prevent the consummation of a proposed transaction.    As the AMC report states, ``Parties to a proposed merger should receive comparable treatment and face similar burdens regardless of whether the FTC or DOJ reviews their merger. A divergence undermines the public's trust that the antitrust agencies will review transactions efficiently and fairly. More important, it creates the impression that the ultimate decision as to whether a merger may proceed depends in substantial part on which agency reviews the transaction.''    The subject of today's hearing, the SMARTER Act, solves the issue highlighted by the AMC. Specifically, the bill eliminates the disparities in the merger review process so that companies face the same standards and processes regardless of whether the FTC or DOJ reviews their proposed transaction.    The SMARTER Act contains two principal reforms to the antitrust laws. First is the harmonization of the preliminary injunction standards that DOJ and the FTC must meet in court. The second reform is the removal of the FTC's ability to pursue administrative litigation following judicial denial of a preliminary injunction request.    The Department of Justice cannot conduct administrative litigation, and it is unfair for some parties to be subject to administrative litigation while others avoid this prospect merely as a result of the identity of the reviewing antitrust enforcement agency. Notably, the removal of the FTC's administrative powers is constructed narrowly and applies solely to the context of merger review cases.    The AMC recommended this removal and went on to state, ``elimination of administrative litigation in HSR Act merger cases will not deprive the FTC of an important enforcement option. Although administrative litigation may provide a valuable avenue to develop antitrust law in general, it appears unlikely to add significant value beyond that developed in Federal court proceedings for injunctive relief in HSR Act merger cases. Whatever the value, it is significantly outweighed by the costs it imposes on merging parties in uncertainty and litigation costs.''    The SMARTER Act is a common-sense, straightforward measure that implements reforms advanced by the bi-partisan members of the AMC. Furthermore, it is an important step to achieving this Committee's goal of ensuring our Nation's antitrust laws are enforced in a manner that is fair, consistent, and predictable.    I look forward to hearing today's testimony from our esteemed panel of witnesses regarding the SMARTER Act, and I yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Chairman Goodlatte.    The Chair recognizes the full Judiciary Committee Ranking Member, Mr. Conyers of Michigan, for his opening statement.</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Mr. Chairman, and to my colleagues. This so-called SMARTER Act would make the Federal Trade Commission adhere to the same merger enforcement procedures as the Justice Department's Antitrust Division for proposed mergers, acquisitions, and other similar transactions. There are several reasons that lead me not to recommend this measure.    By weakening the Commission's independence this bill, in fact, undermines Congress' original intent in creating the Commission in the first place. For good reasons that are still relevant today, Congress established the Commission to be an independent administrative agency, and we must be mindful of these reasons as we consider arguments in favor of the SMARTER Act.    Even though the Justice Department's antitrust enforcement authority already existed at the time the Congress created the Commission in 1914, Congress established this agency in direct response to the Department's failure to enforce the Sherman Antitrust Act of 1890, as well as the Act's perceived failure to stop the wave of mergers and corporate abuses that occurred during the 24 years following its enactment.    The Commission is an independent body of experts tasked with the developing antitrust law and policy free from political influence and particularly executive branch influence. Congress specifically gave the Commission broad administrative powers to investigate and enforce laws to stop unfair methods of competition, as well as the authority to use an administrative adjudication process to help it develop policy expertise rather than requiring the Commission to try cases before a generalist Federal judge.    Unfortunately, the SMARTER Act, rather than strengthening the Commission's authority, does the opposite.    A greater concern is the act's elimination of the administrative adjudication process for merger cases under Section 5(b) of the Federal Trade Commission Act. By doing so, the bill effectively transforms the Commission from an independent administrative agency into another enforcement agency indistinguishable, in fact, from the Justice Department.    The Commission's administrative authority is designed to serve its role as an independent administrative agency. Eliminating it, therefore, threatens the Commission's distinctive role and independence. Make no mistake, eliminating the Commission's administrative authority opens the door for ultimate elimination of the Commission's role in competition and antitrust enforcement and policy development.    You don't have to take my word for it alone. While supporting the bill's harmonization of preliminary injunction standards applicable to two antitrust enforcement agencies, the former Republican Commission Chairman has also publicly said that the rest of the SMARTER Act is ``rubbish.'' The former Chairman understood the ultimate effect of the SMARTER Act, and so do I, when he commented, let me put it this way, behind the rest of the SMARTER Act is the fundamental question of whether you want the Federal Trade Commission involved in competition law.    Similarly, Commission Chairwoman Ramirez observed last year that the bill would have far-reaching immediate effects and fundamentally alter the nature and function of the Commission, as well as the potential for significant unintended consequences.    So, finally, the SMARTER Act is problematic because it may apply to conduct well beyond large mergers, which could further curtail the Commission's effectiveness. In particular, the SMARTER Act would eliminate the Commission's authority to use administrative adjudications not just for the largest mergers, but for any ``proposed merger.''    It also removes such authority to review a joint venture or similar transaction. Moreover, the measure could be read to eliminate the use of administrative processes for already consummated acquisitions, joint ventures, and other types of transactions that are not mergers as currently drafted.    I recognize that the bill's authors have tried in good faith to respond to some of the concerns expressed by myself and by the Commission last year in response to an early draft of the SMARTER Act, and I appreciate these efforts. Moreover, I recognize that the Commission itself earlier this year changed its procedural rules to make it easier to end the use of administrative litigation where it loses a preliminary injunction proceeding in court.    My disagreement with the sponsors, however, is more fundamental, at least regarding whether the Commission should retain its administrative litigation authority at all in merger cases. This disagreement leads me to oppose the so-called SMARTER Act, even in its written form.    I thank the Chair and yield back my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Mr. Conyers.    Without objection, other Members' opening statements will be made part of the record.    Would the witnesses please rise to be sworn in and raise your right hand?    Do you swear that the testimony you are about to give before this Committee is the truth, the whole truth, and nothing but the truth, so help you God?    Let the record reflect that the witnesses have answered in the affirmative.    Please be seated.    I am going to begin by introducing all of the witnesses, and then we will come back for your opening statements. If I mispronounce your name, please do not hesitate to tell me.    Our first witness is Ms. Garza, the co-chair of Covington &amp; Burling's antitrust and competition law practice group. In private practice, she has been involved in some of the largest antitrust matters in the last 30 years, and many other litigation and regulatory matters on behalf of Fortune 500 companies. Before joining Covington, Ms. Garza served as acting Assistant Attorney General in charge of the Antitrust Division at the Department of Justice.    Ms. Garza also was appointed by President George W. Bush to chair the Antitrust Modernization Commission, a bipartisan, blue-ribbon panel created by Congress to study and report to the President and Congress on the state of antitrust enforcement in the United States. The AMC report has been widely praised for providing a valuable framework for policy proposals.    Ms. Garza received her B.S. from Northern Illinois University and her J.D. from the University of Chicago.    Welcome, Ms. Garza.    Mr. Clanton as the senior counsel at Baker &amp; McKenzie, where he also served as head of the firm's global and North American antitrust practice groups. Mr. Clanton has over 30 years of experience representing clients in high-profile and complex antitrust matters. Prior to joining the law firm, Mr. Clanton served as a commissioner and acting chairman of the Federal Trade Commission.    Mr. Clanton received his B.A. from Andrews University and his J.D. from Wayne Law School, where he served on law review.    Welcome, Mr. Clanton.    Mr. Tad Lipsky is a partner in the Washington, D.C., office of Latham &amp; Watkins. He is recognized internationally for his work on both U.S. and global antitrust law and policy, and has handled antitrust matters throughout the world.    Before Latham &amp; Watkins, Mr. Lipsky served as the chief antitrust lawyer for the Coca-Cola Company for 10 years. Mr. Lipsky also served as Deputy Assistant Attorney General under William F. Baxter, who sparked profound antitrust law changes while serving as President Reagan's Chief Antitrust Official.    Mr. Lipsky received his B.A. from Amherst College, his M.A. from Stanford University, and his J.D. from Stanford Law School.    Welcome, sir.    Our final witness is Mr. Bert Foer, the founder and former president of the American Antitrust Institute. Prior to founding AAI, Mr. Foer served in both private and public capacities in the antitrust field. His public service includes serving as the Assistant Director and Acting Deputy Director of the Federal Trade Commission's Bureau of Competition. His private sector experience includes working at Hogan &amp; Hartson, serving as the CEO of a midsize chain of retail jewelry stores, working in various trade associations and nonprofit leadership positions, and teaching antitrust to undergraduate and graduate business school students.    Mr. Foer received his B.A. magna cum laude from Brandeis University, and M.A. in political science from Washington University, and his J.D. from the University of Chicago Law School where he was an associate law review editor.    Welcome, sir.    Each of the witnesses' written statements will be entered into the record in its entirety. I ask that each witness summarize his or her testimony in 5 minutes or less. And to help you with that, you have timing lights in front of you. A light will switch from green to yellow, indicating that you have 1 minute to conclude your testimony. And when the light turns red, it indicates that the witness's 5 minutes have expired. When it gets to the point of when the light flashes red, I know you are intent on getting in your statement, I will politely pick up my hammer and just give you a little indication to please wrap up.    Ms. Garza, your 5-minute opening statement, please?</t>
   </si>
   <si>
-    <t>Garza</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Garza. Thank you, Chairman Marino, Vice Chairman Farenthold, and Members of the Judiciary Committee and the Subcommittee. It is a pleasure to testify in support of the SMARTER Act as the former chair of Congress' Antitrust Modernization Commission. That Commission was a 12-member bipartisan, blue-ribbon panel comprised of six Democrats, five Republicans, and one independent. It was a bipartisan panel. We were an engaged group of experienced practitioners, several former enforcers and zealous advocates of strong antitrust enforcement, including a former general counsel of the Federal Trade Commission during the Clinton administration, and two former heads of the Antitrust Division during Democratic administrations.    So I wanted to put that out there. It is not in my opening statement, but I wanted to be clear that we were Congress' committee and we were structured to be bipartisan, and that is the way that our recommendations came out.    The AMC made three recommendations, each of them with bipartisan support, that relate to the subject matter of this hearing, which is creating greater parity between the DOJ and the FTC with respect to merger enforcement.    One recommendation was that the FTC should adopt a policy that when it seeks to block a merger, it should seek both a preliminary injunction and permanent relief, and consolidate those two into a single hearing as long as agreement can be reached between the enforcement agency and the parties on an appropriate scheduling order. All of the commissioners joined in that recommendation, with the exception of one Democrat, so five Democrats joined in that recommendation.    Second, the AMC recommended that Congress should amend Section 13(b) of the FTC Act to prohibit the Federal Trade Commission from pursuing further administrative litigation if it lost its motion for a preliminary injunction. One Democratic Commissioner declined to join on the basis that, at the time, the FTC had adopted a policy statement saying that it would rarely actually pursue administrative proceedings after losing a preliminary injunction motion.    I should say that that policy statement, which was in place at the time of the AMC vote, was revoked. This was the Pitofsky rule that Mr. Lipsky refers to in his testimony, and I do in mine.    Third, the AMC recommended that Congress act to ensure that the same standard for the grant of a preliminary injunction apply to both the FTC and the DOJ. Five Democrats joined in that recommendation.    The SMARTER Act accomplishes the objectives of each of these recommendations. The premise of the AMC recommendations and the SMARTER Act is very simple: Mergers should not be treated differently depending on which agency happens to review it. The regulatory outcome should not be determined by an agency flip of the coin.    I would like to emphasize that this is not anti-enforcement legislation, at least not by the lights of the AMC. We regard it to be pro-enforcement. We regarded that legislative change was important to maintain consensus about the value of a strong enforcement regime and that a perception of unequal or unfair treatment undermines that consensus.    Chairman Goodlatte had this in his statement, but I want to read the carefully crafted words of the Commission in explaining its recommendation. ``Parties to mergers should receive comparable treatment and face similar burdens, regardless of whether the FTC or the DOJ reviews the merger. A divergence undermines the public trust that the antitrust agencies will review transactions efficiently and fairly. More importantly, it creates the impression that the ultimate decision as to whether a merger may proceed depends in substantial part on which agency reviews a transaction. In particular, the divergence may permit the FTC to exert greater leverage in obtaining parties' assent to a consent decree.''    In closing, I would like to say that no one on the AMC believed at the time, and I do not believe today, that this legislation would make it difficult or impossible for the Federal Trade Commission to do its job. The Justice Department has done very well in pursuing its merger enforcement agenda working with the standards that apply to it. And I firmly believe that the Federal Trade Commission can do so as well. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Ms. Garza.    Mr. Clanton?                          McKENZIE LLP</t>
   </si>
   <si>
-    <t>Clanton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clanton. Thank you, Mr. Chairman, and Members of the Committee.    As you mentioned before, I served on the Commission right after the HSR Act was passed, and when we put into place the procedures, which largely are still there today after nearly 40 years.    And let me explain just briefly why I think this legislation is right on point. It is targeted. It deals with an issue of fairness that I will explain. And it does not--it does not, I emphasize that--create any wholesale revision to the FTC's administrative process.    This legislation will focus only on proposed mergers, which essentially are reportable and nonreportable mergers under the HSR Act. And when Congress passed that statute, it created essentially a unified structure for how proposed mergers are to be reported to the FTC and the timelines the FTC has and DOJ, because both agencies are equally involved in that process. The administration of the statute is jointly managed. The FTC is the lead manager in terms of the whole reporting process, but Justice has to concur.    In addition to that, over the years, the two agencies for reportable mergers have developed very extensive, substantive merger guidelines that the courts increasingly are accepting and have adopted.    So you really have a very unique structure that is specific to this idea and to this whole concept of how merger review should take place.    And let me just then go on to talk about what happens in this process. So the parties file merger notifications with both agencies. Both agencies then determine which agency is going to review it. Sometimes you know that in advance. Many times you don't know that in advance. So it could go to one agency or another.    After that, if there are antitrust concerns, which is why you end up in litigation, there is a very extensive discovery process, what we call a second request. And the whole process goes on for many, many months, typically 6 months or longer. And at the end of that, if there is a problem and the parties cannot work out a settlement, either the FTC or DOJ, depending on the agency, decides if they have to go to court.    And here is where the differences start to take place. They haven't occurred previously, but here the FTC has one process where they can go to court and seek a preliminary injunction. And if they get that, then they move forward on their administrative proceeding.    By contrast, DOJ goes into court exclusively, and what has happened over recent years, instead of seeking a preliminary injunction, the parties typically agree, and it is a hearing on the merits. And that hearing encompasses all of the substantive issues, and DOJ bears the burden of proving a violation of Section 7 of the Clayton Act. So you have a significant contrast right there.    And let me just explain briefly on the administrative process for the FTC, they go into court. They seek a preliminary injunction. That preliminary hearing may take several months.    There is a case that I mention in my testimony that is going on right now involving Sysco and U.S. Foods. That case was brought in February. The decision is probably going to happen fairly soon from the district court judge. The FTC administrative proceeding doesn't start until July 21 of this year, 5 months after the case was filed.    If you just look at the FTC rules, that case will then last for another 7 months. And at that point, it will probably be, based on the history of how long it takes DOJ cases which are on the merits, not a preliminary injunction, in the range of 5 or 6 months. And I give two examples of two cases where that happened, two significant cases, by the way.    So to get to the point quickly, just using those examples, and we could come up with others, the FTC administrative process takes roughly twice as long as it does to go into Federal court. And at the end of the day, the FTC hearing probably ends on a preliminary injunction decision. If the companies lose, they don't have the time. They have already probably invested a year-plus of the deal defending this and going through the investigative process. And at the end of that, they face another 7 months, not to mention potential judicial review.    So the process is inherently unfair and differential, and that is what the legislation seeks to change. And I think that makes sense. The FTC has all the authority in the world and has a lot of experience in bringing cases in Federal court. They are not going to be harmed by this.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Mr. Clanton.    Mr. Lipsky, your statement, please?</t>
   </si>
   <si>
-    <t>Lipsky</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lipsky. Thank you, Mr. Chairman. I am very honored to be asked to testify today. I am glad to appear before you.    I just wanted to quickly echo some of the comments of the previous witnesses. I think I speak for everybody at the witness table here in saying that we all think that the United States was very wise to choose competition and vigorously enforced antitrust law as the main rule of economic organization for the United States. It is one of the things that has helped make the United States the leading economic powerhouse and innovator that it is today.    And I think if any of us thought that there was any possibility that this bill would diminish the value of the antitrust laws and antitrust agencies, we wouldn't be here testifying in support.    But I do testify in support like my colleagues, Mr. Clanton and Ms. Garza, because this bill I think very responsibly and in a very limited fashion corrects a very evident unfairness and an illogical aspect of the way that the procedures have come to work.    You will see my statement that I have taken this over a bit of history. I guess I have gotten to the point where I know more history than most people that are around. That is not a good comment. But this concern particularly about the use of administrative litigation following an FTC proceeding in court, it is actually based on some very tangible negative experience. And you will see I discuss the RR Donnelly, Meredith/Burda merger, which was proposed in 1989 and went through administrative litigation, which took 6 years. And ultimately, the Commission decided that the district court had been right in declining to enter a preliminary injunction.    And I also mentioned a case involving the Dr Pepper soft drink brand, an administrative litigation where the FTC actually won a preliminary injunction under Section 13(b) in 1986. And despite a declaration from the D.C. Circuit that that matter was moot because it was originally proposed to be acquired by the Coca-Cola Company, that was the merger that was enjoined. And then the Dr Pepper brand was sold off, eventually combined with the 7-Up brand to form the Dr Pepper Seven-Up Company.    But while all that wonderful soft drink industry history was proceeding, the Federal Trade Commission was going along with an administrative litigation. So the RR Donnelly case and the Dr Pepper case happened to culminate at about the same time, which was about 1995, shortly after Bob Pitofsky had been appointed Chairman of the Federal Trade Commission by President Clinton.    Bob Pitofsky knows a tremendous amount about the antitrust laws and before coming to the Commission as Chairman had been in several roles there, including as a commissioner in a prior administration. And he very wisely, I think, issued the so-called Pitofsky rule, 16 CFR 3.26, the policy statement.    Now the policy statement, if you read it carefully, is a little bit cagey. It doesn't make any commitments, but it does say that the decision to proceed to administrative litigation following a loss of preliminary injunction would be considered on a case-by-case basis.    And in the context of those two merger cases where the use of administrative litigation had been very heavily criticized in the bar, it was understood to essentially acknowledge the unfairness and the irrationality of having a situation where if your merger is judged in the Justice Department, you end up in a judicial proceeding, whereas if you are judged in the Federal Trade Commission, you face the possibility of this nearly endless administrative litigation. In the Dr Pepper situation, it was 9 years, and that was even before the final disposition by the appellate court.    So I think the Pitofsky rule was wise. I think that the Commission has largely acted in accordance with the Pitofsky rule. And all the SMARTER Act would do, really, is codify I think what is FTC's better judgment that if there is a loss in the district court, it is best that administrative litigation be foregone.    It is true that Congress originally foresaw a very special role in creating this administrative litigation for the FTC. But we also have to take into account that when the 13(b) statute, the injunction statute, was passed in 1973, it did provide the Commission with the possibility to seek a permanent injunction in the Federal district court. So the Commission has a very clear and obvious available authority so that it could decide to go to the district court.    I will stop there. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Mr. Lipsky.        Mr. Foer, your statement, please?</t>
   </si>
   <si>
-    <t>Foer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Foer. Thank you, Mr. Chairman, Members of the Committee.    In previous hearings on the SMARTER Act, you heard from Professor John Kirkwood, like myself, a senior fellow of the American Antitrust Institute, and similarly well experienced at the FTC, albeit years ago. We sent the Committee a letter, and that is attached. This is a year ago, so that is attached to the testimony, and I understand it will be included.    Our position on this legislation, though, has not changed. Put simply, we do not think that the case has been made for new legislation. I will give three reasons.    First, while we agree there is no need for differently articulated standards for obtaining a preliminary injunction, we do not perceive that the differences between the FTC and the Justice Department that are addressed by this bill are differences that, in fact, make a difference.    Federal courts generally require both agencies to make strong showings of probable anticompetitive effect before a preliminary injunction is issued. In actual practice, it rarely if ever occurs that a merger outcome is influenced much less determined by the theoretically more lenient public interest test for a preliminary injunction under Section 13(b) of the FTC Act.    Second, if a single theoretical standard is somehow deemed so important, then we suggest, as I think Ranking Member Johnson suggested, that it would make more sense to modify the DOJ standard to conform to the FTC standard, so that the Department of Justice would share the presumption of expertise that is implicit in the FTC standard.    And third, prudence compels caution. I sound like a real conservative here. Prudence demands caution when tinkering with the system of dual enforcement, including but not limited to administrative adjudication at the FTC. This system emerged out of robust debate during the 1912 presidential election campaign. Congress then was concerned about leaving antitrust enforcement exclusively in the hands of generalist judges, preferring to establish a sister administrative agency with group decision-making by a body of experts.    It is no accident that modern merger law has been the result of administrative guidelines developed jointly by the two antitrust agencies rather than by judicial interpretations. It is administrative guidelines to which both agencies are particularly well-qualified to contribute which are the key to predictability and efficiency in merger controls.    Administrative adjudication of mergers offers an important outlet for the application of such guidelines.    Because of differences in the agency statutes and procedures, special care must be taken to foresee possible unintended consequences. To mention one such risk that can probably be fixed by additional drafting, consummated transactions involving nonprofit organizations, such as some important hospital mergers, might be precluded from administrative adjudication by the FTC. I don't think that is intended. I don't think it would be wise.    But more important, if Congress takes away the FTC's administrative adjudication for mergers, it could be starting down one of those slippery slopes where brakes are likely to fail.    The Clayton Act Congress and the FTC Congress were one and the same. Those farsighted legislators valued a competitive marketplace, which they saw endangered by ever-growing commercial establishments with ever-growing economic and political power. And they became convinced that having two agencies conceived with different structures share the responsibility, that that would be best to ensure the competitive economy they wanted to maintain.    We at the AAI believe that the DOJ and FTC have contributed importantly to the evolution of merger law and policy, both as cooperators in a joint enterprise and occasionally as rivals, motivated by the desire to outshine the other in the public eye.    In this regard, I might mention that the FTC has shown that it has already heard the criticisms of the Antitrust Modernization Commission by taking important steps, including 3.26 of its rules to make their process both fairer and quicker.    So why act now? Why not let the FTC continue to work its way through? We have not seen a lot of examples of problems, and the examples we see are very old and before the FTC took its lessons from the modernization commission.    So I say, why fix a wheel that simply ain't broke?    Thank you for, again, listening to our views.</t>
   </si>
   <si>
@@ -211,9 +187,6 @@
     <t>412531</t>
   </si>
   <si>
-    <t>Doug Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman.    I appreciate this hearing, again. As we have done a lot, it is time to get some stuff that we have done last Congress, it is time to get it again this Congress. Let us move some stuff forward. So I am hoping this will lead toward mark up and lead toward the floor, because we have had a very similar hearing to this last year. In fact, I think three of you were witnesses in the last hearing we did on this.    But I want to make it clear that I am strongly in favor of a strong antitrust enforcement to prevent anticompetitive behavior, as I think are most the Members here today.    But that said, Mr. Lipsky you mentioned in the last hearing, and we do go back and actually look at those, but it stuck with me. You said that, in some cases, the cost and duration of administrative litigation can discourage stakeholders from behavior that is actually procompetitive.    Now, I don't know if you still feel that way or not, but it did stick with me at that point.    You seem to want to make a comment. Do you still feel that way?</t>
   </si>
   <si>
@@ -284,9 +257,6 @@
   </si>
   <si>
     <t>412505</t>
-  </si>
-  <si>
-    <t>Suzan K. DelBene</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you, Mr. Chair.    Thanks to all of you for being here today. We appreciate your time.    I kind of have a question for everyone, and so we will see how we go here, but it could be argued that one of the strengths of administrative litigation is the ability of the Commission to consider novel legal theories and employ innovative forms of economic analysis, things that the DOJ may not be able to do.    So how does the Commission use of innovative evidence and novel legal theories advance antitrust law, especially in today's complex and rapidly changing digital economy where there may not be precedents out there to rely on?    I guess I will start with you, Ms. Garza.</t>
@@ -715,11 +685,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -741,11 +709,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -765,13 +731,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -793,11 +757,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -817,13 +779,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -845,11 +805,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -869,13 +827,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -897,11 +853,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -921,13 +875,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -949,11 +901,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -973,13 +923,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1001,11 +949,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1025,13 +971,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1053,11 +997,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1077,13 +1019,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1105,11 +1045,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1129,13 +1067,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1157,11 +1093,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1181,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1209,11 +1141,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1233,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1261,11 +1189,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1285,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1313,11 +1237,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1337,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1365,11 +1285,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1389,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1415,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1441,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1467,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1493,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1519,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1545,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1571,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1597,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1623,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1649,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1675,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1701,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1727,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1753,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1781,11 +1669,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1805,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44" t="s">
-        <v>65</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1831,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1857,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" t="s">
-        <v>65</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1883,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1909,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" t="s">
-        <v>65</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1937,11 +1813,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1961,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1987,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2013,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2039,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2065,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2091,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2117,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2143,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2169,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2195,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2221,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2247,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2273,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2299,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2325,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2351,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2379,11 +2221,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2403,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>89</v>
-      </c>
-      <c r="G67" t="s">
-        <v>90</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2429,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2455,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>89</v>
-      </c>
-      <c r="G69" t="s">
-        <v>90</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2481,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2507,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>89</v>
-      </c>
-      <c r="G71" t="s">
-        <v>90</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2533,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2559,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>89</v>
-      </c>
-      <c r="G73" t="s">
-        <v>90</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2585,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2611,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
+        <v>80</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
         <v>89</v>
-      </c>
-      <c r="G75" t="s">
-        <v>90</v>
-      </c>
-      <c r="H75" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2639,11 +2461,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95119.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95119.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412468</t>
   </si>
   <si>
+    <t>Marino</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Marino. The Subcommittee on Regulatory Reform, Commercial and Antitrust Law will come to order. Without objection, the Chair is authorized to declare recesses of the Committee at any time.    We welcome everyone to today's hearing on H.R. 2745, the ``Standard Merger and Acquisition Reviews Through Equal Rules Act of 2015.'' I will recognize myself for an opening statement.    Today's hearing is on the ``Standard Merger and Acquisition Reviews Through Equal Rules Act of 2015,'' known as the ``SMARTER Act.'' This legislation enacts an Antitrust Modernization Commission recommendation that the standards and processes applied in the merger review process should be identical between our two antitrust enforcement agencies.    Since 1914, two Federal agencies have enforced our Nation's antitrust laws, the Department of Justice and the Federal Trade Commission. When a company wishes to merge with or purchase another company, it notifies both antitrust enforcement agencies of the proposed transaction. Ultimately, only one agency reviews the transaction to determine whether it violates the antitrust laws, and there is no fixed rule to determine which agency will conduct this review.    When the reviewing antitrust enforcement agency concludes that the proposed transaction violates the antitrust laws, it then seeks to prevent the parties from consummating the deal. It is at this stage of the merger review process that the AMC identified a problem.    The AMC noted that there are different standards applied and processes available to the FTC and DOJ when each agency seeks to block a proposed transaction. Each agency is subject to a different preliminary injunction standard.    Additionally, the FTC has the option to unwind or prevent the closing of the transaction through administrative litigation, DOJ on the other hand cannot.    The AMC concluded that, although certain of the differences between the FTC and DOJ may have some benefits, the disparities between the dual merger review processes result in unfairness and uncertainty. In light of this finding, the AMC recommended that Congress harmonize the merger review processes and standards between the two antitrust enforcement agencies.    The SMARTER Act effectuates this recommendation. This legislation was carefully drafted to reform only the merger review process. The SMARTER Act does not prevent the FTC from pursuing administrative litigation in conduct cases, against consummated transactions, or in any other context outside of the merger review. This narrow construction is consistent with the AMC's recommendations.    Our witnesses today come with experience in the FTC, the DOJ, the AMC, and in private practice. I look forward to hearing their testimony on the important reforms contained in the SMARTER Act.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412199</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    Today's hearing is an important opportunity to consider the Federal Trade Commission's critical role in developing and enforcing antitrust law.    Congress first established the Federal Trade Commission in 1914 to safeguard consumers against anticompetitive behavior by specifically empowering the Commission with the authority to enforce, clarify, and develop antitrust law. Under the process of administrative litigation, also known as Part III litigation, the Committee may seek permanent injunctions in its own administrative court in addition to its ability to seek preliminary injunctions in Federal district court.    This additional authority is a unique mechanism that takes advantage of the Commission's longstanding expertise to develop some of the most complex issues in antitrust law.    Today, this Subcommittee will consider the Standard Merger and Acquisition Review Through Equal Rules, or SMARTER Act. This bill would create a uniform standard for preliminary injunctions in cases involving mergers, acquisitions, joint ventures, or similar transactions and, alarmingly, eliminate the Commission's century-old authority to administratively litigate these cases.    Proponents of the SMARTER Act argue that divergent standards for enjoining mergers may undermine the public's trust in the efficient and fair outcomes of merger cases. But it is unclear that these differences are material, let alone that the differences have led to divergent outcomes in merger cases.    In the absence of any evidence, it is difficult to support wholesale changes to longstanding antitrust practices at the FTC for consistency's sake alone based solely on speculative harms. But even assuming that there are material differences in cases brought under these standards, we should strike a balance in favor of competition by lowering the burden of proof in cases brought by the Justice Department, not by raising the Commission's burden for obtaining preliminary injunctions. Courts already require a lower burden of proof in cases brought by the Commission and Justice Department precisely because both are expert agencies equipped with large staffs of economists who analyze numerous mergers on a regular basis that may only bring cases that are in the public interest.    To the extent that we should address perceived differences in the standard for preliminary injunctions in merger cases, legislation should favor increased competition, not the interest of merging parties.    The SMARTER Act would also eliminate the FTC's authority to administratively litigate mergers and other transactions under Section 5(b) of the FTC Act. Leading authorities in antitrust across party lines have expressed serious reservations with eliminating the Commission's administrative litigation authority.    For instance, Bill Kovacic, a former Republican chair of the Commission, has referred to this aspect of the bill as ``rubbish,'' noting that the Commission has used administrative litigation to win a string of novel antitrust cases that courts have ultimately upheld where the Commission has had to fight every single foot along the way.    Edith Ramirez, the chairwoman of the FTC, likewise wrote last Congress that eliminating the FTC's administrative litigation authority would ``fundamentally alter the nature and function of the FTC.''    In light of these concerns, I sincerely hope that we can work to find an evenhanded solution that promotes competition in the market and protects the public interest.    And with that, I thank the Chairman, and I yield back.</t>
   </si>
   <si>
@@ -70,36 +85,54 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    I believe our Nation's antitrust laws serve an important function in rooting out anti-competitive and discriminatory behavior in the marketplace. I also believe that to be effective, these laws must be administered fairly and consistently.    Today's hearing focuses on the ``Standard Merger and Acquisition Reviews Through Equal Rules Act,'' or the ``SMARTER Act,'' which makes important reforms to ensure that our antitrust laws are prosecuted in this manner. Specifically, the bill amends the standards and processes applied to proposed transactions so that they are no longer determined by the flip of a coin.    One of the responsibilities of the Judiciary Committee is to ensure that the enforcement of our Nation's antitrust laws is fair, consistent, and predictable. We discharge this responsibility through vigorous oversight of the antitrust enforcement agencies and vigilant supervision of the existing antitrust laws. To assist the Committee in its antitrust oversight, the Antitrust Modernization Commission was formed and charged with conducting a comprehensive examination of the antitrust laws and existing enforcement practices.    Following this review, the AMC issued a 540-page report that detailed the issues it examined and provided a number of recommendations for legislative, administrative, and judicial action. One of the issues the AMC examined was the existing disparities in the standards applied to, and processes used by, the Department of Justice and the Federal Trade Commission when they seek to prevent the consummation of a proposed transaction.    As the AMC report states, ``Parties to a proposed merger should receive comparable treatment and face similar burdens regardless of whether the FTC or DOJ reviews their merger. A divergence undermines the public's trust that the antitrust agencies will review transactions efficiently and fairly. More important, it creates the impression that the ultimate decision as to whether a merger may proceed depends in substantial part on which agency reviews the transaction.''    The subject of today's hearing, the SMARTER Act, solves the issue highlighted by the AMC. Specifically, the bill eliminates the disparities in the merger review process so that companies face the same standards and processes regardless of whether the FTC or DOJ reviews their proposed transaction.    The SMARTER Act contains two principal reforms to the antitrust laws. First is the harmonization of the preliminary injunction standards that DOJ and the FTC must meet in court. The second reform is the removal of the FTC's ability to pursue administrative litigation following judicial denial of a preliminary injunction request.    The Department of Justice cannot conduct administrative litigation, and it is unfair for some parties to be subject to administrative litigation while others avoid this prospect merely as a result of the identity of the reviewing antitrust enforcement agency. Notably, the removal of the FTC's administrative powers is constructed narrowly and applies solely to the context of merger review cases.    The AMC recommended this removal and went on to state, ``elimination of administrative litigation in HSR Act merger cases will not deprive the FTC of an important enforcement option. Although administrative litigation may provide a valuable avenue to develop antitrust law in general, it appears unlikely to add significant value beyond that developed in Federal court proceedings for injunctive relief in HSR Act merger cases. Whatever the value, it is significantly outweighed by the costs it imposes on merging parties in uncertainty and litigation costs.''    The SMARTER Act is a common-sense, straightforward measure that implements reforms advanced by the bi-partisan members of the AMC. Furthermore, it is an important step to achieving this Committee's goal of ensuring our Nation's antitrust laws are enforced in a manner that is fair, consistent, and predictable.    I look forward to hearing today's testimony from our esteemed panel of witnesses regarding the SMARTER Act, and I yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Chairman Goodlatte.    The Chair recognizes the full Judiciary Committee Ranking Member, Mr. Conyers of Michigan, for his opening statement.</t>
   </si>
   <si>
+    <t>Conyers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Mr. Chairman, and to my colleagues. This so-called SMARTER Act would make the Federal Trade Commission adhere to the same merger enforcement procedures as the Justice Department's Antitrust Division for proposed mergers, acquisitions, and other similar transactions. There are several reasons that lead me not to recommend this measure.    By weakening the Commission's independence this bill, in fact, undermines Congress' original intent in creating the Commission in the first place. For good reasons that are still relevant today, Congress established the Commission to be an independent administrative agency, and we must be mindful of these reasons as we consider arguments in favor of the SMARTER Act.    Even though the Justice Department's antitrust enforcement authority already existed at the time the Congress created the Commission in 1914, Congress established this agency in direct response to the Department's failure to enforce the Sherman Antitrust Act of 1890, as well as the Act's perceived failure to stop the wave of mergers and corporate abuses that occurred during the 24 years following its enactment.    The Commission is an independent body of experts tasked with the developing antitrust law and policy free from political influence and particularly executive branch influence. Congress specifically gave the Commission broad administrative powers to investigate and enforce laws to stop unfair methods of competition, as well as the authority to use an administrative adjudication process to help it develop policy expertise rather than requiring the Commission to try cases before a generalist Federal judge.    Unfortunately, the SMARTER Act, rather than strengthening the Commission's authority, does the opposite.    A greater concern is the act's elimination of the administrative adjudication process for merger cases under Section 5(b) of the Federal Trade Commission Act. By doing so, the bill effectively transforms the Commission from an independent administrative agency into another enforcement agency indistinguishable, in fact, from the Justice Department.    The Commission's administrative authority is designed to serve its role as an independent administrative agency. Eliminating it, therefore, threatens the Commission's distinctive role and independence. Make no mistake, eliminating the Commission's administrative authority opens the door for ultimate elimination of the Commission's role in competition and antitrust enforcement and policy development.    You don't have to take my word for it alone. While supporting the bill's harmonization of preliminary injunction standards applicable to two antitrust enforcement agencies, the former Republican Commission Chairman has also publicly said that the rest of the SMARTER Act is ``rubbish.'' The former Chairman understood the ultimate effect of the SMARTER Act, and so do I, when he commented, let me put it this way, behind the rest of the SMARTER Act is the fundamental question of whether you want the Federal Trade Commission involved in competition law.    Similarly, Commission Chairwoman Ramirez observed last year that the bill would have far-reaching immediate effects and fundamentally alter the nature and function of the Commission, as well as the potential for significant unintended consequences.    So, finally, the SMARTER Act is problematic because it may apply to conduct well beyond large mergers, which could further curtail the Commission's effectiveness. In particular, the SMARTER Act would eliminate the Commission's authority to use administrative adjudications not just for the largest mergers, but for any ``proposed merger.''    It also removes such authority to review a joint venture or similar transaction. Moreover, the measure could be read to eliminate the use of administrative processes for already consummated acquisitions, joint ventures, and other types of transactions that are not mergers as currently drafted.    I recognize that the bill's authors have tried in good faith to respond to some of the concerns expressed by myself and by the Commission last year in response to an early draft of the SMARTER Act, and I appreciate these efforts. Moreover, I recognize that the Commission itself earlier this year changed its procedural rules to make it easier to end the use of administrative litigation where it loses a preliminary injunction proceeding in court.    My disagreement with the sponsors, however, is more fundamental, at least regarding whether the Commission should retain its administrative litigation authority at all in merger cases. This disagreement leads me to oppose the so-called SMARTER Act, even in its written form.    I thank the Chair and yield back my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Mr. Conyers.    Without objection, other Members' opening statements will be made part of the record.    Would the witnesses please rise to be sworn in and raise your right hand?    Do you swear that the testimony you are about to give before this Committee is the truth, the whole truth, and nothing but the truth, so help you God?    Let the record reflect that the witnesses have answered in the affirmative.    Please be seated.    I am going to begin by introducing all of the witnesses, and then we will come back for your opening statements. If I mispronounce your name, please do not hesitate to tell me.    Our first witness is Ms. Garza, the co-chair of Covington &amp; Burling's antitrust and competition law practice group. In private practice, she has been involved in some of the largest antitrust matters in the last 30 years, and many other litigation and regulatory matters on behalf of Fortune 500 companies. Before joining Covington, Ms. Garza served as acting Assistant Attorney General in charge of the Antitrust Division at the Department of Justice.    Ms. Garza also was appointed by President George W. Bush to chair the Antitrust Modernization Commission, a bipartisan, blue-ribbon panel created by Congress to study and report to the President and Congress on the state of antitrust enforcement in the United States. The AMC report has been widely praised for providing a valuable framework for policy proposals.    Ms. Garza received her B.S. from Northern Illinois University and her J.D. from the University of Chicago.    Welcome, Ms. Garza.    Mr. Clanton as the senior counsel at Baker &amp; McKenzie, where he also served as head of the firm's global and North American antitrust practice groups. Mr. Clanton has over 30 years of experience representing clients in high-profile and complex antitrust matters. Prior to joining the law firm, Mr. Clanton served as a commissioner and acting chairman of the Federal Trade Commission.    Mr. Clanton received his B.A. from Andrews University and his J.D. from Wayne Law School, where he served on law review.    Welcome, Mr. Clanton.    Mr. Tad Lipsky is a partner in the Washington, D.C., office of Latham &amp; Watkins. He is recognized internationally for his work on both U.S. and global antitrust law and policy, and has handled antitrust matters throughout the world.    Before Latham &amp; Watkins, Mr. Lipsky served as the chief antitrust lawyer for the Coca-Cola Company for 10 years. Mr. Lipsky also served as Deputy Assistant Attorney General under William F. Baxter, who sparked profound antitrust law changes while serving as President Reagan's Chief Antitrust Official.    Mr. Lipsky received his B.A. from Amherst College, his M.A. from Stanford University, and his J.D. from Stanford Law School.    Welcome, sir.    Our final witness is Mr. Bert Foer, the founder and former president of the American Antitrust Institute. Prior to founding AAI, Mr. Foer served in both private and public capacities in the antitrust field. His public service includes serving as the Assistant Director and Acting Deputy Director of the Federal Trade Commission's Bureau of Competition. His private sector experience includes working at Hogan &amp; Hartson, serving as the CEO of a midsize chain of retail jewelry stores, working in various trade associations and nonprofit leadership positions, and teaching antitrust to undergraduate and graduate business school students.    Mr. Foer received his B.A. magna cum laude from Brandeis University, and M.A. in political science from Washington University, and his J.D. from the University of Chicago Law School where he was an associate law review editor.    Welcome, sir.    Each of the witnesses' written statements will be entered into the record in its entirety. I ask that each witness summarize his or her testimony in 5 minutes or less. And to help you with that, you have timing lights in front of you. A light will switch from green to yellow, indicating that you have 1 minute to conclude your testimony. And when the light turns red, it indicates that the witness's 5 minutes have expired. When it gets to the point of when the light flashes red, I know you are intent on getting in your statement, I will politely pick up my hammer and just give you a little indication to please wrap up.    Ms. Garza, your 5-minute opening statement, please?</t>
   </si>
   <si>
+    <t>Garza</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Garza. Thank you, Chairman Marino, Vice Chairman Farenthold, and Members of the Judiciary Committee and the Subcommittee. It is a pleasure to testify in support of the SMARTER Act as the former chair of Congress' Antitrust Modernization Commission. That Commission was a 12-member bipartisan, blue-ribbon panel comprised of six Democrats, five Republicans, and one independent. It was a bipartisan panel. We were an engaged group of experienced practitioners, several former enforcers and zealous advocates of strong antitrust enforcement, including a former general counsel of the Federal Trade Commission during the Clinton administration, and two former heads of the Antitrust Division during Democratic administrations.    So I wanted to put that out there. It is not in my opening statement, but I wanted to be clear that we were Congress' committee and we were structured to be bipartisan, and that is the way that our recommendations came out.    The AMC made three recommendations, each of them with bipartisan support, that relate to the subject matter of this hearing, which is creating greater parity between the DOJ and the FTC with respect to merger enforcement.    One recommendation was that the FTC should adopt a policy that when it seeks to block a merger, it should seek both a preliminary injunction and permanent relief, and consolidate those two into a single hearing as long as agreement can be reached between the enforcement agency and the parties on an appropriate scheduling order. All of the commissioners joined in that recommendation, with the exception of one Democrat, so five Democrats joined in that recommendation.    Second, the AMC recommended that Congress should amend Section 13(b) of the FTC Act to prohibit the Federal Trade Commission from pursuing further administrative litigation if it lost its motion for a preliminary injunction. One Democratic Commissioner declined to join on the basis that, at the time, the FTC had adopted a policy statement saying that it would rarely actually pursue administrative proceedings after losing a preliminary injunction motion.    I should say that that policy statement, which was in place at the time of the AMC vote, was revoked. This was the Pitofsky rule that Mr. Lipsky refers to in his testimony, and I do in mine.    Third, the AMC recommended that Congress act to ensure that the same standard for the grant of a preliminary injunction apply to both the FTC and the DOJ. Five Democrats joined in that recommendation.    The SMARTER Act accomplishes the objectives of each of these recommendations. The premise of the AMC recommendations and the SMARTER Act is very simple: Mergers should not be treated differently depending on which agency happens to review it. The regulatory outcome should not be determined by an agency flip of the coin.    I would like to emphasize that this is not anti-enforcement legislation, at least not by the lights of the AMC. We regard it to be pro-enforcement. We regarded that legislative change was important to maintain consensus about the value of a strong enforcement regime and that a perception of unequal or unfair treatment undermines that consensus.    Chairman Goodlatte had this in his statement, but I want to read the carefully crafted words of the Commission in explaining its recommendation. ``Parties to mergers should receive comparable treatment and face similar burdens, regardless of whether the FTC or the DOJ reviews the merger. A divergence undermines the public trust that the antitrust agencies will review transactions efficiently and fairly. More importantly, it creates the impression that the ultimate decision as to whether a merger may proceed depends in substantial part on which agency reviews a transaction. In particular, the divergence may permit the FTC to exert greater leverage in obtaining parties' assent to a consent decree.''    In closing, I would like to say that no one on the AMC believed at the time, and I do not believe today, that this legislation would make it difficult or impossible for the Federal Trade Commission to do its job. The Justice Department has done very well in pursuing its merger enforcement agenda working with the standards that apply to it. And I firmly believe that the Federal Trade Commission can do so as well. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Ms. Garza.    Mr. Clanton?                          McKENZIE LLP</t>
   </si>
   <si>
+    <t>Clanton</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clanton. Thank you, Mr. Chairman, and Members of the Committee.    As you mentioned before, I served on the Commission right after the HSR Act was passed, and when we put into place the procedures, which largely are still there today after nearly 40 years.    And let me explain just briefly why I think this legislation is right on point. It is targeted. It deals with an issue of fairness that I will explain. And it does not--it does not, I emphasize that--create any wholesale revision to the FTC's administrative process.    This legislation will focus only on proposed mergers, which essentially are reportable and nonreportable mergers under the HSR Act. And when Congress passed that statute, it created essentially a unified structure for how proposed mergers are to be reported to the FTC and the timelines the FTC has and DOJ, because both agencies are equally involved in that process. The administration of the statute is jointly managed. The FTC is the lead manager in terms of the whole reporting process, but Justice has to concur.    In addition to that, over the years, the two agencies for reportable mergers have developed very extensive, substantive merger guidelines that the courts increasingly are accepting and have adopted.    So you really have a very unique structure that is specific to this idea and to this whole concept of how merger review should take place.    And let me just then go on to talk about what happens in this process. So the parties file merger notifications with both agencies. Both agencies then determine which agency is going to review it. Sometimes you know that in advance. Many times you don't know that in advance. So it could go to one agency or another.    After that, if there are antitrust concerns, which is why you end up in litigation, there is a very extensive discovery process, what we call a second request. And the whole process goes on for many, many months, typically 6 months or longer. And at the end of that, if there is a problem and the parties cannot work out a settlement, either the FTC or DOJ, depending on the agency, decides if they have to go to court.    And here is where the differences start to take place. They haven't occurred previously, but here the FTC has one process where they can go to court and seek a preliminary injunction. And if they get that, then they move forward on their administrative proceeding.    By contrast, DOJ goes into court exclusively, and what has happened over recent years, instead of seeking a preliminary injunction, the parties typically agree, and it is a hearing on the merits. And that hearing encompasses all of the substantive issues, and DOJ bears the burden of proving a violation of Section 7 of the Clayton Act. So you have a significant contrast right there.    And let me just explain briefly on the administrative process for the FTC, they go into court. They seek a preliminary injunction. That preliminary hearing may take several months.    There is a case that I mention in my testimony that is going on right now involving Sysco and U.S. Foods. That case was brought in February. The decision is probably going to happen fairly soon from the district court judge. The FTC administrative proceeding doesn't start until July 21 of this year, 5 months after the case was filed.    If you just look at the FTC rules, that case will then last for another 7 months. And at that point, it will probably be, based on the history of how long it takes DOJ cases which are on the merits, not a preliminary injunction, in the range of 5 or 6 months. And I give two examples of two cases where that happened, two significant cases, by the way.    So to get to the point quickly, just using those examples, and we could come up with others, the FTC administrative process takes roughly twice as long as it does to go into Federal court. And at the end of the day, the FTC hearing probably ends on a preliminary injunction decision. If the companies lose, they don't have the time. They have already probably invested a year-plus of the deal defending this and going through the investigative process. And at the end of that, they face another 7 months, not to mention potential judicial review.    So the process is inherently unfair and differential, and that is what the legislation seeks to change. And I think that makes sense. The FTC has all the authority in the world and has a lot of experience in bringing cases in Federal court. They are not going to be harmed by this.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Mr. Clanton.    Mr. Lipsky, your statement, please?</t>
   </si>
   <si>
+    <t>Lipsky</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lipsky. Thank you, Mr. Chairman. I am very honored to be asked to testify today. I am glad to appear before you.    I just wanted to quickly echo some of the comments of the previous witnesses. I think I speak for everybody at the witness table here in saying that we all think that the United States was very wise to choose competition and vigorously enforced antitrust law as the main rule of economic organization for the United States. It is one of the things that has helped make the United States the leading economic powerhouse and innovator that it is today.    And I think if any of us thought that there was any possibility that this bill would diminish the value of the antitrust laws and antitrust agencies, we wouldn't be here testifying in support.    But I do testify in support like my colleagues, Mr. Clanton and Ms. Garza, because this bill I think very responsibly and in a very limited fashion corrects a very evident unfairness and an illogical aspect of the way that the procedures have come to work.    You will see my statement that I have taken this over a bit of history. I guess I have gotten to the point where I know more history than most people that are around. That is not a good comment. But this concern particularly about the use of administrative litigation following an FTC proceeding in court, it is actually based on some very tangible negative experience. And you will see I discuss the RR Donnelly, Meredith/Burda merger, which was proposed in 1989 and went through administrative litigation, which took 6 years. And ultimately, the Commission decided that the district court had been right in declining to enter a preliminary injunction.    And I also mentioned a case involving the Dr Pepper soft drink brand, an administrative litigation where the FTC actually won a preliminary injunction under Section 13(b) in 1986. And despite a declaration from the D.C. Circuit that that matter was moot because it was originally proposed to be acquired by the Coca-Cola Company, that was the merger that was enjoined. And then the Dr Pepper brand was sold off, eventually combined with the 7-Up brand to form the Dr Pepper Seven-Up Company.    But while all that wonderful soft drink industry history was proceeding, the Federal Trade Commission was going along with an administrative litigation. So the RR Donnelly case and the Dr Pepper case happened to culminate at about the same time, which was about 1995, shortly after Bob Pitofsky had been appointed Chairman of the Federal Trade Commission by President Clinton.    Bob Pitofsky knows a tremendous amount about the antitrust laws and before coming to the Commission as Chairman had been in several roles there, including as a commissioner in a prior administration. And he very wisely, I think, issued the so-called Pitofsky rule, 16 CFR 3.26, the policy statement.    Now the policy statement, if you read it carefully, is a little bit cagey. It doesn't make any commitments, but it does say that the decision to proceed to administrative litigation following a loss of preliminary injunction would be considered on a case-by-case basis.    And in the context of those two merger cases where the use of administrative litigation had been very heavily criticized in the bar, it was understood to essentially acknowledge the unfairness and the irrationality of having a situation where if your merger is judged in the Justice Department, you end up in a judicial proceeding, whereas if you are judged in the Federal Trade Commission, you face the possibility of this nearly endless administrative litigation. In the Dr Pepper situation, it was 9 years, and that was even before the final disposition by the appellate court.    So I think the Pitofsky rule was wise. I think that the Commission has largely acted in accordance with the Pitofsky rule. And all the SMARTER Act would do, really, is codify I think what is FTC's better judgment that if there is a loss in the district court, it is best that administrative litigation be foregone.    It is true that Congress originally foresaw a very special role in creating this administrative litigation for the FTC. But we also have to take into account that when the 13(b) statute, the injunction statute, was passed in 1973, it did provide the Commission with the possibility to seek a permanent injunction in the Federal district court. So the Commission has a very clear and obvious available authority so that it could decide to go to the district court.    I will stop there. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Mr. Lipsky.        Mr. Foer, your statement, please?</t>
   </si>
   <si>
+    <t>Foer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Foer. Thank you, Mr. Chairman, Members of the Committee.    In previous hearings on the SMARTER Act, you heard from Professor John Kirkwood, like myself, a senior fellow of the American Antitrust Institute, and similarly well experienced at the FTC, albeit years ago. We sent the Committee a letter, and that is attached. This is a year ago, so that is attached to the testimony, and I understand it will be included.    Our position on this legislation, though, has not changed. Put simply, we do not think that the case has been made for new legislation. I will give three reasons.    First, while we agree there is no need for differently articulated standards for obtaining a preliminary injunction, we do not perceive that the differences between the FTC and the Justice Department that are addressed by this bill are differences that, in fact, make a difference.    Federal courts generally require both agencies to make strong showings of probable anticompetitive effect before a preliminary injunction is issued. In actual practice, it rarely if ever occurs that a merger outcome is influenced much less determined by the theoretically more lenient public interest test for a preliminary injunction under Section 13(b) of the FTC Act.    Second, if a single theoretical standard is somehow deemed so important, then we suggest, as I think Ranking Member Johnson suggested, that it would make more sense to modify the DOJ standard to conform to the FTC standard, so that the Department of Justice would share the presumption of expertise that is implicit in the FTC standard.    And third, prudence compels caution. I sound like a real conservative here. Prudence demands caution when tinkering with the system of dual enforcement, including but not limited to administrative adjudication at the FTC. This system emerged out of robust debate during the 1912 presidential election campaign. Congress then was concerned about leaving antitrust enforcement exclusively in the hands of generalist judges, preferring to establish a sister administrative agency with group decision-making by a body of experts.    It is no accident that modern merger law has been the result of administrative guidelines developed jointly by the two antitrust agencies rather than by judicial interpretations. It is administrative guidelines to which both agencies are particularly well-qualified to contribute which are the key to predictability and efficiency in merger controls.    Administrative adjudication of mergers offers an important outlet for the application of such guidelines.    Because of differences in the agency statutes and procedures, special care must be taken to foresee possible unintended consequences. To mention one such risk that can probably be fixed by additional drafting, consummated transactions involving nonprofit organizations, such as some important hospital mergers, might be precluded from administrative adjudication by the FTC. I don't think that is intended. I don't think it would be wise.    But more important, if Congress takes away the FTC's administrative adjudication for mergers, it could be starting down one of those slippery slopes where brakes are likely to fail.    The Clayton Act Congress and the FTC Congress were one and the same. Those farsighted legislators valued a competitive marketplace, which they saw endangered by ever-growing commercial establishments with ever-growing economic and political power. And they became convinced that having two agencies conceived with different structures share the responsibility, that that would be best to ensure the competitive economy they wanted to maintain.    We at the AAI believe that the DOJ and FTC have contributed importantly to the evolution of merger law and policy, both as cooperators in a joint enterprise and occasionally as rivals, motivated by the desire to outshine the other in the public eye.    In this regard, I might mention that the FTC has shown that it has already heard the criticisms of the Antitrust Modernization Commission by taking important steps, including 3.26 of its rules to make their process both fairer and quicker.    So why act now? Why not let the FTC continue to work its way through? We have not seen a lot of examples of problems, and the examples we see are very old and before the FTC took its lessons from the modernization commission.    So I say, why fix a wheel that simply ain't broke?    Thank you for, again, listening to our views.</t>
   </si>
   <si>
@@ -187,6 +220,12 @@
     <t>412531</t>
   </si>
   <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman.    I appreciate this hearing, again. As we have done a lot, it is time to get some stuff that we have done last Congress, it is time to get it again this Congress. Let us move some stuff forward. So I am hoping this will lead toward mark up and lead toward the floor, because we have had a very similar hearing to this last year. In fact, I think three of you were witnesses in the last hearing we did on this.    But I want to make it clear that I am strongly in favor of a strong antitrust enforcement to prevent anticompetitive behavior, as I think are most the Members here today.    But that said, Mr. Lipsky you mentioned in the last hearing, and we do go back and actually look at those, but it stuck with me. You said that, in some cases, the cost and duration of administrative litigation can discourage stakeholders from behavior that is actually procompetitive.    Now, I don't know if you still feel that way or not, but it did stick with me at that point.    You seem to want to make a comment. Do you still feel that way?</t>
   </si>
   <si>
@@ -257,6 +296,12 @@
   </si>
   <si>
     <t>412505</t>
+  </si>
+  <si>
+    <t>DelBene</t>
+  </si>
+  <si>
+    <t>Suzan</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you, Mr. Chair.    Thanks to all of you for being here today. We appreciate your time.    I kind of have a question for everyone, and so we will see how we go here, but it could be argued that one of the strengths of administrative litigation is the ability of the Commission to consider novel legal theories and employ innovative forms of economic analysis, things that the DOJ may not be able to do.    So how does the Commission use of innovative evidence and novel legal theories advance antitrust law, especially in today's complex and rapidly changing digital economy where there may not be precedents out there to rely on?    I guess I will start with you, Ms. Garza.</t>
@@ -635,7 +680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +688,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,1805 +710,2103 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G44" t="s">
+        <v>68</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>38</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G63" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>38</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G67" t="s">
+        <v>94</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G68" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G69" t="s">
+        <v>94</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>80</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G71" t="s">
+        <v>94</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G72" t="s">
+        <v>38</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>80</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G73" t="s">
+        <v>94</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G74" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>80</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G75" t="s">
+        <v>94</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95119.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95119.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412468</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Marino</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412199</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Johnson</t>
   </si>
   <si>
@@ -218,6 +227,9 @@
   </si>
   <si>
     <t>412531</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Collins</t>
@@ -680,7 +692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,7 +700,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,2100 +725,2248 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G48" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>38</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>35</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>38</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>26</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>35</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" t="s">
-        <v>38</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>26</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s">
-        <v>38</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>35</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>38</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G67" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H67" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G69" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>32</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G71" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>38</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G73" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I73" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>38</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G75" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I75" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>105</v>
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
